--- a/ucsb_cse.xlsx
+++ b/ucsb_cse.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>06</t>
   </si>
@@ -76,9 +76,15 @@
     <t>puter science</t>
   </si>
   <si>
+    <t>basic numerical</t>
+  </si>
+  <si>
     <t>science computer</t>
   </si>
   <si>
+    <t>science a-b</t>
+  </si>
+  <si>
     <t>computer systems</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>memory management</t>
   </si>
   <si>
+    <t>paral lel</t>
+  </si>
+  <si>
     <t>type systems</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>distributed databases</t>
   </si>
   <si>
+    <t>engineering electrical</t>
+  </si>
+  <si>
     <t>software systems</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>mathemat ics</t>
   </si>
   <si>
+    <t>methods linear</t>
+  </si>
+  <si>
     <t>numerical solution</t>
   </si>
   <si>
@@ -157,12 +172,18 @@
     <t>mobile computing</t>
   </si>
   <si>
+    <t>advanced degree</t>
+  </si>
+  <si>
     <t>individual studies</t>
   </si>
   <si>
     <t>computer programming</t>
   </si>
   <si>
+    <t>computers basic</t>
+  </si>
+  <si>
     <t>basic programming</t>
   </si>
   <si>
@@ -214,6 +235,12 @@
     <t>formal languages</t>
   </si>
   <si>
+    <t>rigorous proofs</t>
+  </si>
+  <si>
+    <t>correctness proofs</t>
+  </si>
+  <si>
     <t>computational complexity</t>
   </si>
   <si>
@@ -226,232 +253,211 @@
     <t>tech niques</t>
   </si>
   <si>
+    <t>machine learning</t>
+  </si>
+  <si>
+    <t>database systems</t>
+  </si>
+  <si>
+    <t>partial differential</t>
+  </si>
+  <si>
+    <t>design documentation</t>
+  </si>
+  <si>
+    <t>documentation structured</t>
+  </si>
+  <si>
+    <t>structured programming</t>
+  </si>
+  <si>
+    <t>user interface</t>
+  </si>
+  <si>
+    <t>equations numerical</t>
+  </si>
+  <si>
+    <t>science •</t>
+  </si>
+  <si>
+    <t>• college</t>
+  </si>
+  <si>
+    <t>science cmpsc</t>
+  </si>
+  <si>
+    <t>courses provide</t>
+  </si>
+  <si>
+    <t>provide critical</t>
+  </si>
+  <si>
+    <t>language laboratory</t>
+  </si>
+  <si>
+    <t>section studies</t>
+  </si>
+  <si>
+    <t>different language</t>
+  </si>
+  <si>
+    <t>language sections</t>
+  </si>
+  <si>
+    <t>special seminars</t>
+  </si>
+  <si>
+    <t>language cmpsc</t>
+  </si>
+  <si>
+    <t>learn other</t>
+  </si>
+  <si>
+    <t>other languages</t>
+  </si>
+  <si>
+    <t>science pa</t>
+  </si>
+  <si>
+    <t>comp introduction</t>
+  </si>
+  <si>
+    <t>comments same</t>
+  </si>
+  <si>
+    <t>science general</t>
+  </si>
+  <si>
+    <t>cmpsc aazz</t>
+  </si>
+  <si>
+    <t>systems cmpsc</t>
+  </si>
+  <si>
+    <t>el abbadi</t>
+  </si>
+  <si>
+    <t>general cmpsc</t>
+  </si>
+  <si>
+    <t>science scientific</t>
+  </si>
+  <si>
+    <t>systems modeling</t>
+  </si>
+  <si>
+    <t>language same</t>
+  </si>
+  <si>
+    <t>legal repeat</t>
+  </si>
+  <si>
+    <t>problem solving</t>
+  </si>
+  <si>
+    <t>computer organization</t>
+  </si>
+  <si>
+    <t>tools cmpsc</t>
+  </si>
+  <si>
+    <t>include data</t>
+  </si>
+  <si>
+    <t>independent studies</t>
+  </si>
+  <si>
+    <t>staff enrollment</t>
+  </si>
+  <si>
     <t>artificial intelligence</t>
   </si>
   <si>
-    <t>machine learning</t>
-  </si>
-  <si>
-    <t>database systems</t>
-  </si>
-  <si>
-    <t>rigorous proofs</t>
-  </si>
-  <si>
-    <t>correctness proofs</t>
-  </si>
-  <si>
-    <t>logic programming</t>
-  </si>
-  <si>
-    <t>system architectures</t>
-  </si>
-  <si>
-    <t>relational data</t>
-  </si>
-  <si>
-    <t>design documentation</t>
-  </si>
-  <si>
-    <t>documentation structured</t>
-  </si>
-  <si>
-    <t>structured programming</t>
-  </si>
-  <si>
-    <t>user interface</t>
-  </si>
-  <si>
-    <t>techniques system</t>
+    <t>techniques cmpsc</t>
+  </si>
+  <si>
+    <t>science foundations</t>
+  </si>
+  <si>
+    <t>complete computer</t>
+  </si>
+  <si>
+    <t>security cmpsc</t>
+  </si>
+  <si>
+    <t>upper division</t>
+  </si>
+  <si>
+    <t>management cmpsc</t>
+  </si>
+  <si>
+    <t>foundations cmpsc</t>
+  </si>
+  <si>
+    <t>science software</t>
+  </si>
+  <si>
+    <t>science programming</t>
+  </si>
+  <si>
+    <t>engineering cmpsc</t>
+  </si>
+  <si>
+    <t>science networking</t>
+  </si>
+  <si>
+    <t>science security</t>
+  </si>
+  <si>
+    <t>science intelligent</t>
+  </si>
+  <si>
+    <t>networking cmpsc</t>
+  </si>
+  <si>
+    <t>building blocks</t>
+  </si>
+  <si>
+    <t>problems using</t>
+  </si>
+  <si>
+    <t>numerical algorithms</t>
+  </si>
+  <si>
+    <t>programming language</t>
+  </si>
+  <si>
+    <t>programming languages</t>
+  </si>
+  <si>
+    <t>science systems</t>
+  </si>
+  <si>
+    <t>science applications</t>
+  </si>
+  <si>
+    <t>information systems</t>
+  </si>
+  <si>
+    <t>aazz special</t>
+  </si>
+  <si>
+    <t>object oriented</t>
+  </si>
+  <si>
+    <t>oriented design</t>
+  </si>
+  <si>
+    <t>application development</t>
+  </si>
+  <si>
+    <t>data mining</t>
+  </si>
+  <si>
+    <t>engineering enrollment</t>
   </si>
   <si>
     <t>data model</t>
-  </si>
-  <si>
-    <t>integrity database</t>
-  </si>
-  <si>
-    <t>science •</t>
-  </si>
-  <si>
-    <t>• college</t>
-  </si>
-  <si>
-    <t>instruction set</t>
-  </si>
-  <si>
-    <t>science cmpsc</t>
-  </si>
-  <si>
-    <t>language laboratory</t>
-  </si>
-  <si>
-    <t>section studies</t>
-  </si>
-  <si>
-    <t>different language</t>
-  </si>
-  <si>
-    <t>language sections</t>
-  </si>
-  <si>
-    <t>special seminars</t>
-  </si>
-  <si>
-    <t>language cmpsc</t>
-  </si>
-  <si>
-    <t>other languages</t>
-  </si>
-  <si>
-    <t>science pa</t>
-  </si>
-  <si>
-    <t>comp introduction</t>
-  </si>
-  <si>
-    <t>systems cmpsc</t>
-  </si>
-  <si>
-    <t>el abbadi</t>
-  </si>
-  <si>
-    <t>general cmpsc</t>
-  </si>
-  <si>
-    <t>systems modeling</t>
-  </si>
-  <si>
-    <t>legal repeat</t>
-  </si>
-  <si>
-    <t>problem solving</t>
-  </si>
-  <si>
-    <t>computer organization</t>
-  </si>
-  <si>
-    <t>tools cmpsc</t>
-  </si>
-  <si>
-    <t>include data</t>
-  </si>
-  <si>
-    <t>techniques cmpsc</t>
-  </si>
-  <si>
-    <t>science foundations</t>
-  </si>
-  <si>
-    <t>science software</t>
-  </si>
-  <si>
-    <t>science programming</t>
-  </si>
-  <si>
-    <t>science networking</t>
-  </si>
-  <si>
-    <t>science security</t>
-  </si>
-  <si>
-    <t>cmpsc aazz</t>
-  </si>
-  <si>
-    <t>independent studies</t>
-  </si>
-  <si>
-    <t>staff enrollment</t>
-  </si>
-  <si>
-    <t>complete computer</t>
-  </si>
-  <si>
-    <t>security cmpsc</t>
-  </si>
-  <si>
-    <t>upper division</t>
-  </si>
-  <si>
-    <t>management cmpsc</t>
-  </si>
-  <si>
-    <t>foundations cmpsc</t>
-  </si>
-  <si>
-    <t>engineering cmpsc</t>
-  </si>
-  <si>
-    <t>science intelligent</t>
-  </si>
-  <si>
-    <t>analysis cmpsc</t>
-  </si>
-  <si>
-    <t>problems cmpsc</t>
-  </si>
-  <si>
-    <t>networking cmpsc</t>
-  </si>
-  <si>
-    <t>laboratory cmpsc</t>
-  </si>
-  <si>
-    <t>building blocks</t>
-  </si>
-  <si>
-    <t>problems using</t>
-  </si>
-  <si>
-    <t>intermediate building</t>
-  </si>
-  <si>
-    <t>programming language</t>
-  </si>
-  <si>
-    <t>programming languages</t>
-  </si>
-  <si>
-    <t>science systems</t>
-  </si>
-  <si>
-    <t>science applications</t>
-  </si>
-  <si>
-    <t>information systems</t>
-  </si>
-  <si>
-    <t>object oriented</t>
-  </si>
-  <si>
-    <t>oriented design</t>
-  </si>
-  <si>
-    <t>application development</t>
-  </si>
-  <si>
-    <t>turk wang</t>
-  </si>
-  <si>
-    <t>shape representation</t>
-  </si>
-  <si>
-    <t>vision systems</t>
-  </si>
-  <si>
-    <t>data mining</t>
-  </si>
-  <si>
-    <t>mining cmpsc</t>
-  </si>
-  <si>
-    <t>computational thinking</t>
-  </si>
-  <si>
-    <t>object-oriented design</t>
-  </si>
-  <si>
-    <t>engineering enrollment</t>
   </si>
 </sst>
 </file>
@@ -809,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1178,34 +1184,34 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1213,43 +1219,43 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="N10">
         <v>6</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1257,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1266,34 +1272,34 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1307,31 +1313,31 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1348,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1357,25 +1363,25 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1401,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1419,13 +1425,13 @@
         <v>4</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1463,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1480,40 +1486,40 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1521,43 +1527,43 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1565,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1577,31 +1583,31 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1621,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1656,40 +1662,40 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1709,31 +1715,31 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1753,31 +1759,31 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1797,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1812,16 +1818,16 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1835,16 +1841,16 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1859,13 +1865,13 @@
         <v>4</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1879,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1929,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1944,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -1953,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1967,37 +1973,37 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2008,40 +2014,40 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2052,40 +2058,40 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2096,40 +2102,40 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2143,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2184,40 +2190,40 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2228,40 +2234,40 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33">
         <v>3</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2272,40 +2278,40 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2316,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2331,25 +2337,25 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2360,40 +2366,40 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2401,19 +2407,19 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2445,19 +2451,19 @@
         <v>49</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2489,19 +2495,19 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2533,7 +2539,7 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2563,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2577,43 +2583,43 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2621,16 +2627,16 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2677,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2721,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2765,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2809,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2844,13 +2850,13 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2888,40 +2894,40 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2932,13 +2938,13 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3003,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3196,25 +3202,25 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3240,13 +3246,13 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3311,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3331,10 +3337,10 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3381,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3419,19 +3425,19 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3443,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3463,37 +3469,37 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3516,28 +3522,28 @@
         <v>4</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3560,28 +3566,28 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3592,25 +3598,25 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3686,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3724,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3771,19 +3777,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3795,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3815,37 +3821,37 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3859,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3906,10 +3912,10 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3950,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3977,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3994,10 +4000,10 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -4079,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -4170,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4217,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4261,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4305,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4355,25 +4361,25 @@
         <v>11</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4437,19 +4443,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4458,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4481,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4525,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4569,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4613,31 +4619,31 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4657,31 +4663,31 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4701,31 +4707,31 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4745,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4789,25 +4795,25 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M91">
         <v>6</v>
@@ -4833,31 +4839,31 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4877,31 +4883,31 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4921,31 +4927,31 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4965,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -4977,13 +4983,13 @@
         <v>3</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <v>3</v>
@@ -5009,31 +5015,31 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5053,31 +5059,31 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5097,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -5109,13 +5115,13 @@
         <v>3</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -5141,31 +5147,31 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5188,28 +5194,28 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5232,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -5241,19 +5247,19 @@
         <v>3</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5273,31 +5279,31 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5317,31 +5323,31 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5361,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104">
         <v>4</v>
@@ -5379,13 +5385,13 @@
         <v>4</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5408,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -5417,19 +5423,19 @@
         <v>4</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5452,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -5470,10 +5476,10 @@
         <v>4</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5496,28 +5502,28 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5540,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -5552,16 +5558,16 @@
         <v>3</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5584,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -5596,16 +5602,16 @@
         <v>3</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5631,25 +5637,25 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J110">
         <v>3</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5675,25 +5681,25 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5722,22 +5728,22 @@
         <v>3</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5763,25 +5769,25 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5807,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -5816,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -5851,25 +5857,25 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5895,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116">
         <v>3</v>
@@ -5907,13 +5913,13 @@
         <v>3</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5939,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -5951,13 +5957,13 @@
         <v>3</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5983,22 +5989,22 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6027,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -6071,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6083,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -6118,22 +6124,22 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6165,19 +6171,19 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6209,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6253,19 +6259,19 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6303,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -6347,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6391,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6435,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6479,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6523,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M130">
         <v>4</v>
@@ -6567,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6611,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6655,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6702,9 +6708,97 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
         <v>3</v>
       </c>
     </row>
